--- a/lista6/zad2c.xlsx
+++ b/lista6/zad2c.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDVirtual\Desktop\lab\lista6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26354F1F-DA99-48DB-8682-62E59C74EA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA3A70A-7D99-4C04-AB58-5B1BD1DE64D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="14220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wyk1" sheetId="1" r:id="rId1"/>
     <sheet name="wyk2" sheetId="2" r:id="rId2"/>
     <sheet name="wyk3" sheetId="3" r:id="rId3"/>
+    <sheet name="wyk4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="62" r:id="rId5"/>
-    <pivotCache cacheId="107" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="61" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>Line Total</t>
   </si>
@@ -145,6 +147,15 @@
   </si>
   <si>
     <t>Components</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -6350,6 +6361,945 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[zad2c.xlsx]wyk4!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wyk4'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wyk4'!$A$5:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecien</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpien</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesien</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pazdziernik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyk4'!$B$5:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2125171.4449609979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1110464.8651999978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2412878.6425249986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1429029.6505999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2716489.4389749961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3471765.1901899949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3796388.4072729936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2605263.8618649957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2679669.462747992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4622822.1194089856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1468575.8528929986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4651359.7393159829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7FB-4435-80F3-77DDFCEDE424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wyk4'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wyk4'!$A$5:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecien</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpien</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesien</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pazdziernik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyk4'!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2794852.9800009928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1637713.5110599985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2736990.749537996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560646.8227309959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2833952.1393419979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4350353.5245569889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4676594.1914299857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3491565.1020609923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3861032.7985399878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5100691.7955399845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1517918.4460999975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6239071.7679119725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C7FB-4435-80F3-77DDFCEDE424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wyk4'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wyk4'!$A$5:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecien</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpien</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesien</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pazdziernik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wyk4'!$D$5:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1138475.3165000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1044170.6852000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1237947.8139000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1177190.2374000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1273590.9066000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1817215.5983999884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1885925.0119999733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1908589.0547999712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1948432.2302999718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2205152.296499976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2936177.7441999796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2951771.8117999672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C7FB-4435-80F3-77DDFCEDE424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="551908392"/>
+        <c:axId val="551909376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551908392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551909376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551909376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551908392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6431,6 +7381,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8000,6 +8990,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8103,6 +9596,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5ED3806-E01C-443E-A9F5-436E502438F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437BA5AF-0524-4F30-9868-E879C916F819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8560,6 +10094,150 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HDVirtual" refreshedDate="44664.793852314811" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{938BBD4C-921E-4E89-92CD-B8E90A606214}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Line Total]" caption="Line Total" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Order Date].[Miesiac Slownie].[Miesiac Slownie]" caption="Miesiac Slownie" numFmtId="0" hierarchy="27" level="1">
+      <sharedItems count="12">
+        <s v="[Order Date].[Miesiac Slownie].&amp;[czerwiec]" c="czerwiec"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[grudzien]" c="grudzien"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[kwiecien]" c="kwiecien"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[lipiec]" c="lipiec"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[listopad]" c="listopad"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[luty]" c="luty"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[maj]" c="maj"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[marzec]" c="marzec"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[pazdziernik]" c="pazdziernik"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[sierpien]" c="sierpien"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[styczen]" c="styczen"/>
+        <s v="[Order Date].[Miesiac Slownie].&amp;[wrzesien]" c="wrzesien"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Order Date].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM SALESPERSON].[Gender].[Gender]" caption="Gender" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems count="3">
+        <s v="[DIM SALESPERSON].[Gender].&amp;[F]" c="F"/>
+        <s v="[DIM SALESPERSON].[Gender].&amp;[M]" c="M"/>
+        <s v="[DIM SALESPERSON].[Gender].[All].UNKNOWNMEMBER" c="Unknown"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="46">
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Group].[All]" allUniqueName="[DIM CUSTOMER].[Group].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM CUSTOMER].[Hierarchy].[All]" allUniqueName="[DIM CUSTOMER].[Hierarchy].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Names].[All]" allUniqueName="[DIM CUSTOMER].[Names].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Territory Name]" caption="Territory Name" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Territory Name].[All]" allUniqueName="[DIM CUSTOMER].[Territory Name].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Title].[All]" allUniqueName="[DIM CUSTOMER].[Title].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Category Name].[All]" allUniqueName="[DIM PRODUCT].[Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Color].[All]" allUniqueName="[DIM PRODUCT].[Color].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM PRODUCT].[Hierarchy].[All]" allUniqueName="[DIM PRODUCT].[Hierarchy].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[List Price].[All]" allUniqueName="[DIM PRODUCT].[List Price].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Name].[All]" allUniqueName="[DIM PRODUCT].[Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Product ID].[All]" allUniqueName="[DIM PRODUCT].[Product ID].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Sub Category Name]" caption="Sub Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" allUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" allUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Gender]" caption="Gender" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Gender].[All]" allUniqueName="[DIM SALESPERSON].[Gender].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Group].[All]" allUniqueName="[DIM SALESPERSON].[Group].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM SALESPERSON].[Hierarchy].[All]" allUniqueName="[DIM SALESPERSON].[Hierarchy].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Names].[All]" allUniqueName="[DIM SALESPERSON].[Names].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Person ID]" caption="Sales Person ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" allUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Title].[All]" allUniqueName="[DIM SALESPERSON].[Title].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Dzien Miesiaca]" caption="Order Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Miesiaca].[All]" allUniqueName="[Order Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Dzien Tygodnia]" caption="Order Date.Dzien Tygodnia" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Tygodnia].[All]" allUniqueName="[Order Date].[Dzien Tygodnia].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Hierarchy]" caption="Order Date.Hierarchy" defaultMemberUniqueName="[Order Date].[Hierarchy].[All]" allUniqueName="[Order Date].[Hierarchy].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Kwartal]" caption="Order Date.Kwartal" attribute="1" defaultMemberUniqueName="[Order Date].[Kwartal].[All]" allUniqueName="[Order Date].[Kwartal].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Miesiac]" caption="Order Date.Miesiac" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac].[All]" allUniqueName="[Order Date].[Miesiac].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Miesiac Slownie]" caption="Order Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac Slownie].[All]" allUniqueName="[Order Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Order Date].[PK TIME]" caption="Order Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Order Date].[PK TIME].[All]" allUniqueName="[Order Date].[PK TIME].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Rok]" caption="Order Date.Rok" attribute="1" defaultMemberUniqueName="[Order Date].[Rok].[All]" allUniqueName="[Order Date].[Rok].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Ship Date].[Dzien Miesiaca]" caption="Ship Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Miesiaca].[All]" allUniqueName="[Ship Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Dzien Tygodnia]" caption="Ship Date.Dzien Tygodnia" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Tygodnia].[All]" allUniqueName="[Ship Date].[Dzien Tygodnia].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Hierarchy]" caption="Ship Date.Hierarchy" defaultMemberUniqueName="[Ship Date].[Hierarchy].[All]" allUniqueName="[Ship Date].[Hierarchy].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Kwartal]" caption="Ship Date.Kwartal" attribute="1" defaultMemberUniqueName="[Ship Date].[Kwartal].[All]" allUniqueName="[Ship Date].[Kwartal].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Miesiac]" caption="Ship Date.Miesiac" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac].[All]" allUniqueName="[Ship Date].[Miesiac].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Miesiac Slownie]" caption="Ship Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac Slownie].[All]" allUniqueName="[Ship Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[PK TIME]" caption="Ship Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship Date].[PK TIME].[All]" allUniqueName="[Ship Date].[PK TIME].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Rok]" caption="Ship Date.Rok" attribute="1" defaultMemberUniqueName="[Ship Date].[Rok].[All]" allUniqueName="[Ship Date].[Rok].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Maximum Unit Price Discount]" caption="Maximum Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Maximum Order Qty]" caption="Maximum Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Customer ID Distinct Count]" caption="Customer ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Product ID Distinct Count]" caption="Product ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sales Person ID Distinct Count]" caption="Sales Person ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 3" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="DIM CUSTOMER" uniqueName="[DIM CUSTOMER]" caption="DIM CUSTOMER"/>
+    <dimension name="DIM PRODUCT" uniqueName="[DIM PRODUCT]" caption="DIM PRODUCT"/>
+    <dimension name="DIM SALESPERSON" uniqueName="[DIM SALESPERSON]" caption="DIM SALESPERSON"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Order Date" uniqueName="[Order Date]" caption="Order Date"/>
+    <dimension name="Ship Date" uniqueName="[Ship Date]" caption="Ship Date"/>
+  </dimensions>
+  <measureGroups count="4">
+    <measureGroup name="FACT SALES" caption="FACT SALES"/>
+    <measureGroup name="FACT SALES 1" caption="FACT SALES 1"/>
+    <measureGroup name="FACT SALES 2" caption="FACT SALES 2"/>
+    <measureGroup name="FACT SALES 3" caption="FACT SALES 3"/>
+  </measureGroups>
+  <maps count="20">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="4"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="4"/>
+    <map measureGroup="2" dimension="5"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="3" dimension="5"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A4:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
@@ -9010,7 +10688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:N9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -9338,7 +11016,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:H17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -9580,6 +11258,210 @@
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="1"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{538EA088-7D5C-4458-8542-785213EE77F1}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="12">
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="29" name="[Order Date].[Rok].&amp;[2011]" cap="2011"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="46">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="3" level="1">
+        <member name="[Order Date].[Rok].&amp;[2011]"/>
+        <member name="[Order Date].[Rok].&amp;[2012]"/>
+        <member name="[Order Date].[Rok].&amp;[2013]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="27"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="16"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9891,7 +11773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +11962,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10777,4 +12659,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D4AF8-6B6B-4349-9F49-4931EB6438DE}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" vm="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2125171.4449609979</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2794852.9800009928</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1138475.3165000011</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6058499.7414619736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1110464.8651999978</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1637713.5110599985</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1044170.6852000008</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3792349.0614599921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2412878.6425249986</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2736990.749537996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1237947.8139000013</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6387817.2059630016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1429029.6505999984</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1560646.8227309959</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1177190.2374000009</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4166866.7107309964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2716489.4389749961</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2833952.1393419979</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1273590.9066000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6824032.4849170037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3471765.1901899949</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4350353.5245569889</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1817215.5983999884</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9639334.3131469563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3796388.4072729936</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4676594.1914299857</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1885925.0119999733</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10358907.610702928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2605263.8618649957</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3491565.1020609923</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1908589.0547999712</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8005418.0187259987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2679669.462747992</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3861032.7985399878</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1948432.2302999718</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8489134.4915879592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4622822.1194089856</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5100691.7955399845</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2205152.296499976</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11928666.211449016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1468575.8528929986</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1517918.4460999975</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2936177.7441999796</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5922672.0431929734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4651359.7393159829</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6239071.7679119725</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2951771.8117999672</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13842203.319028758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>33089878.675954927</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40801383.828811891</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21524638.707599834</v>
+      </c>
+      <c r="E17" s="1">
+        <v>95415901.212367564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>